--- a/data/trans_bre/P1419-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1419-Clase-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.563351908768756</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.104338646352322</v>
+        <v>1.104338646352323</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.825063976502345</v>
+        <v>1.916296328736325</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.293265197728288</v>
+        <v>1.292102088937531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.167736322732267</v>
+        <v>-1.050002983501999</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.327936295220031</v>
+        <v>1.409924082755124</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3616796346939808</v>
+        <v>0.4029227431055731</v>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-0.4097183733604214</v>
+        <v>-0.4227744544248345</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2754225880218689</v>
+        <v>0.2734144990872667</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.84941672112781</v>
+        <v>9.279291837514243</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.206082864667334</v>
+        <v>5.172021586718493</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.496506035771755</v>
+        <v>4.540423972484492</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.304866054457584</v>
+        <v>6.290263181411859</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.132928174502182</v>
+        <v>4.83313185263868</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>3.512568085883883</v>
+        <v>3.261329072679851</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.703590119296581</v>
+        <v>2.586276053281602</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>1.600414810908644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.170193093875162</v>
+        <v>5.170193093875163</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.704632250997032</v>
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.241169341536495</v>
+        <v>1.060715723452311</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.018919179469038</v>
+        <v>1.981360186289022</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.2819548872799444</v>
+        <v>-0.2060326215690517</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.819572450290941</v>
+        <v>2.868925121921299</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2364507036652478</v>
+        <v>0.2079444885830891</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6260730065421127</v>
+        <v>0.7182596354889008</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5183997366963253</v>
+        <v>-0.5427607752260117</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5876655597713842</v>
+        <v>0.629343787547944</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.463241981339003</v>
+        <v>7.070085200849338</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.490949098304883</v>
+        <v>7.797234577480038</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.111533382152443</v>
+        <v>3.904360179971074</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.586317155893489</v>
+        <v>7.854289193667221</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.794500374641138</v>
+        <v>5.216217919119804</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>21.21165268399097</v>
+        <v>22.27420814778447</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>14.03845463699889</v>
+        <v>18.15700273375681</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.519276262304093</v>
+        <v>3.653034342071289</v>
       </c>
     </row>
     <row r="10">
@@ -845,7 +845,7 @@
         <v>3.704353779009838</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2.212731477065874</v>
+        <v>2.212731477065875</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.250162911061572</v>
+        <v>3.525137940484877</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.521784139804724</v>
+        <v>3.451145562853456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.482713352147115</v>
+        <v>3.370668286937962</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.271854846227461</v>
+        <v>8.251715703359002</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6911555273504467</v>
+        <v>0.6842826229637186</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.65704492456748</v>
+        <v>1.443948323768807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9709612857086207</v>
+        <v>1.127640355285343</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1.062467691887358</v>
+        <v>1.096627438664366</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.73449594498605</v>
+        <v>14.3583816293771</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.77308499836943</v>
+        <v>10.90400011278669</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.25817144468276</v>
+        <v>14.22392567201881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.67172158423913</v>
+        <v>18.0592357580591</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.065594737301145</v>
+        <v>4.995384960554667</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>14.22638205413163</v>
+        <v>13.34077405559617</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>9.366573790796615</v>
+        <v>9.981538562646332</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>4.159762003835386</v>
+        <v>3.903591887941974</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +933,7 @@
         <v>3.536583228443985</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.149730293343572</v>
+        <v>5.149730293343569</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.601126479530951</v>
@@ -945,7 +945,7 @@
         <v>2.786841919020687</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.9971566239227133</v>
+        <v>0.9971566239227128</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.327415132776002</v>
+        <v>5.227963044576123</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.373259851651687</v>
+        <v>2.307754179882005</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.802679602731822</v>
+        <v>2.045686819108917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.243808049000003</v>
+        <v>3.110451638478095</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.382581090956167</v>
+        <v>1.363171352289618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7979671898849674</v>
+        <v>0.7951900041713832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.895165811002178</v>
+        <v>1.090599845762039</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5227785382090991</v>
+        <v>0.4856721703294202</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.2347362620437</v>
+        <v>10.41737521009427</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.535465445026984</v>
+        <v>6.538610268853316</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.360160301740908</v>
+        <v>5.541895339657516</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.359573269612393</v>
+        <v>7.30666640070023</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.340115477475369</v>
+        <v>4.186485266643677</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.071101003837798</v>
+        <v>4.785242056664817</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6.193480955356664</v>
+        <v>6.74060033933065</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.725618491911367</v>
+        <v>1.672803514804856</v>
       </c>
     </row>
     <row r="16">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9020834759250531</v>
+        <v>0.731261750284684</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.207186978517164</v>
+        <v>7.277671100213642</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.085042026682729</v>
+        <v>4.228786919418956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10.31029256054697</v>
+        <v>10.40515166720242</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08668718700069969</v>
+        <v>0.05351252212260466</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>3.602422659406531</v>
+        <v>4.042513628589242</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.306899696352085</v>
+        <v>1.415181619206036</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>2.617339170113342</v>
+        <v>2.94281952542817</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.312820384664567</v>
+        <v>8.365702848076555</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.72567242610457</v>
+        <v>11.67710758188686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.988433368910011</v>
+        <v>8.660647381727815</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.99163172373421</v>
+        <v>14.88493289712242</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.669570061456667</v>
+        <v>2.493331965416246</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>50.8038191587375</v>
+        <v>49.08324218106358</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>7.504337380148539</v>
+        <v>7.211485573083984</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9.698729118463373</v>
+        <v>10.08403941574482</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1133,7 @@
         <v>6.698919924901127</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8.798817702514421</v>
+        <v>8.79881770251442</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>18.51255241174137</v>
@@ -1147,7 +1147,7 @@
         <v>18.77466095550093</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>36.60137776606665</v>
+        <v>36.60137776606664</v>
       </c>
     </row>
     <row r="20">
@@ -1158,19 +1158,19 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10.42087127932771</v>
+        <v>10.22223564419368</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.402536671601153</v>
+        <v>9.512310720226079</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.609218891365273</v>
+        <v>4.953528156475143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.160587250867616</v>
+        <v>7.365110787504503</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>4.209279587275127</v>
+        <v>4.649585881025455</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.77745217347388</v>
+        <v>14.52883945992806</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13.21016682689604</v>
+        <v>13.30897978630247</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.558286233896894</v>
+        <v>8.456447322980946</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.61694143738639</v>
+        <v>10.72907172530821</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
         <v>4.569282980320486</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.023841156545271</v>
+        <v>7.023841156545273</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>2.559767679087395</v>
@@ -1233,7 +1233,7 @@
         <v>2.95566714281213</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.795540037504032</v>
+        <v>1.795540037504033</v>
       </c>
     </row>
     <row r="23">
@@ -1244,28 +1244,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.528499269437585</v>
+        <v>6.571646566130378</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.324035615496025</v>
+        <v>6.220114577183521</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.571744941784533</v>
+        <v>3.619641290907061</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.978101429523026</v>
+        <v>6.032790382118934</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.828646910137822</v>
+        <v>1.889969172732654</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>4.030485544970591</v>
+        <v>3.960397557871274</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.827149568137191</v>
+        <v>1.829557069456076</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1.379048066456354</v>
+        <v>1.350196426131022</v>
       </c>
     </row>
     <row r="24">
@@ -1276,28 +1276,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.01172057858499</v>
+        <v>9.079695100869136</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.398720228522082</v>
+        <v>8.280104498625489</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.47285788572305</v>
+        <v>5.680764946116891</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.113338281203063</v>
+        <v>8.060719203604675</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.455627973133256</v>
+        <v>3.491791640628669</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>9.07328063855836</v>
+        <v>9.04783529653176</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>4.391813813019111</v>
+        <v>4.597650100333858</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.393063200957889</v>
+        <v>2.34619452618669</v>
       </c>
     </row>
     <row r="25">
